--- a/Output/FindingExcelOutput.xlsx
+++ b/Output/FindingExcelOutput.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="117">
   <si>
     <t>Test Case:1</t>
   </si>
@@ -390,6 +390,9 @@
   </si>
   <si>
     <t>Dr. Prafulla Biradar</t>
+  </si>
+  <si>
+    <t>Dr. Chiranjeevi Reddy</t>
   </si>
 </sst>
 </file>
@@ -980,37 +983,37 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>9</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
@@ -1020,62 +1023,62 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>10</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>24</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>113</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>115</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Output/FindingExcelOutput.xlsx
+++ b/Output/FindingExcelOutput.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4128" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9568" uniqueCount="122">
   <si>
     <t>Test Case:1</t>
   </si>
@@ -393,6 +393,21 @@
   </si>
   <si>
     <t>Dr. Chiranjeevi Reddy</t>
+  </si>
+  <si>
+    <t>Dr. Shambhu H Shivanna</t>
+  </si>
+  <si>
+    <t>Dr. Deepthi B C</t>
+  </si>
+  <si>
+    <t>Dr. Prabhu Dev P</t>
+  </si>
+  <si>
+    <t>Dr. Sainath N.K.</t>
+  </si>
+  <si>
+    <t>Dr. Preetha Peethambar</t>
   </si>
 </sst>
 </file>
@@ -993,32 +1008,32 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>116</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1033,12 +1048,12 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>23</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -1053,12 +1068,12 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>13</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
